--- a/PRODUCTION/REGISTRE DES TEMPÉRATURES.xlsx
+++ b/PRODUCTION/REGISTRE DES TEMPÉRATURES.xlsx
@@ -163,7 +163,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -638,14 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -654,14 +646,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -674,14 +658,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -697,42 +673,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,41 +687,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -792,6 +705,56 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,6 +762,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,7 +1098,7 @@
   <dimension ref="A2:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1110,465 +1110,479 @@
   <sheetData>
     <row r="2" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="55"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="28"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="4" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="39">
         <f ca="1">TODAY()</f>
-        <v>43477</v>
-      </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="23" t="s">
+        <v>43732</v>
+      </c>
+      <c r="K4" s="40"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="39">
         <f ca="1">J4+7</f>
-        <v>43484</v>
-      </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
+        <v>43739</v>
+      </c>
+      <c r="O4" s="40"/>
+      <c r="P4" s="42"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="58"/>
+      <c r="E5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="25" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27" t="s">
+      <c r="J5" s="51"/>
+      <c r="K5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="27" t="s">
+      <c r="L5" s="52"/>
+      <c r="M5" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="30" t="s">
+      <c r="N5" s="49"/>
+      <c r="O5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="29"/>
+      <c r="P5" s="52"/>
     </row>
     <row r="6" spans="1:16" ht="21.75" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="31" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:16" ht="15.75">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="15.75">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:16" ht="15.75">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="11"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:16" ht="15.75">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="11"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="11"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="11"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="17"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="46"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="21"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="52"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="I28" s="18"/>
+      <c r="I28" s="12"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="30">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="A4:B4"/>
@@ -1585,20 +1599,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
